--- a/data/outputs/数学期刊(下)_altmetric/54Qualitative Theory of Dynamical Systems.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/54Qualitative Theory of Dynamical Systems.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE27"/>
+  <dimension ref="A1:CF27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1033,6 +1038,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1280,6 +1288,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1531,6 +1542,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1794,6 +1808,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2049,6 +2066,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2298,6 +2318,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,6 +2566,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2798,6 +2824,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3053,6 +3082,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3318,6 +3350,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3563,6 +3598,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3804,6 +3842,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4053,6 +4094,9 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4298,6 +4342,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4549,6 +4596,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4802,6 +4852,9 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5063,6 +5116,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5310,6 +5366,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5562,6 +5621,9 @@
       </c>
       <c r="CE20" t="n">
         <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
@@ -5810,6 +5872,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6067,6 +6132,9 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6316,6 +6384,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6553,6 +6624,9 @@
         <v>0</v>
       </c>
       <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6790,6 +6864,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7045,6 +7122,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7292,6 +7372,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
